--- a/scheme/Copaf_aix/issues_metadados_copaf_aix.xlsx
+++ b/scheme/Copaf_aix/issues_metadados_copaf_aix.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="0_SCHEMA_METADATA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1_ISSUES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2_SCHEME_MEASURES" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3_MODEL_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4_MODEL_METRICS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SCHEME_MEASURES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="METADATA_ISSUES" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="METADATA_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="METADATA_METRICS" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15920,7 +15920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15931,74 +15931,94 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rule</t>
+          <t>Indicator</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>desc</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>owner</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>column</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>constraint_name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>length</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>limit</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD10</t>
+          <t>MQMS01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>COPAF_AIX</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DEBITO</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>COD_TIP_TRA_ITCD</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Total number of tables</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MQMS02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Total number of columns</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MQMS03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total number of primary key</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MQMS04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Total number of foreign key</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MQMS05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Total number of unique key</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16011,7 +16031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16022,94 +16042,74 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indicator</t>
+          <t>rule</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>desc</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>owner</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>column</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>constraint_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>limit</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD01</t>
+          <t>MQME01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MQMD02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Total number of columns</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MQMD03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total number of primary key</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MQMD04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Total number of foreign key</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MQMD05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Total number of unique key</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>COPAF_AIX</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DEBITO</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>COD_TIP_TRA_ITCD</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16122,7 +16122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16150,16 +16150,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD10</t>
+          <t>MQME00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with column names without comments</t>
+          <t>Total number of columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MQMEA1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Total number of length-required columns</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MQMEA2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total number of NUMBER columns</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -16173,7 +16203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16201,29 +16231,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQMD01</t>
+          <t>IQME01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Table names in singular</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>99.59%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQMD02</t>
+          <t>IQME02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Table names with recommended size</t>
+          <t>Columns with data type</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -16235,12 +16265,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQMD03</t>
+          <t>IQME03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Table columns with correct prefixes</t>
+          <t>Length-required columns with data length</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -16252,12 +16282,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQMD04</t>
+          <t>IQME04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Table columns with recommend size</t>
+          <t>NUMBER columns with valid scale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -16269,29 +16299,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQMD05</t>
+          <t>IQME05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Table columns with comments</t>
+          <t>Columns with valid num_distinct</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>99.59%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQMD06</t>
+          <t>IQME06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Table with standard PK prefixes</t>
+          <t>Columns with valid num_nulls</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -16303,34 +16333,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQMD07</t>
+          <t>IQME07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Table with standard FK prefixes</t>
+          <t>Columns with valid density</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>IQMD08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Table with standard UK prefixes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>

--- a/scheme/Copaf_aix/issues_metadados_copaf_aix.xlsx
+++ b/scheme/Copaf_aix/issues_metadados_copaf_aix.xlsx
@@ -15948,7 +15948,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMS01</t>
+          <t>MQME001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -15963,7 +15963,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMS02</t>
+          <t>MQME002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -15978,7 +15978,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMS03</t>
+          <t>MQME003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -15993,7 +15993,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMS04</t>
+          <t>MQME004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -16008,7 +16008,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMS05</t>
+          <t>MQME005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -16084,7 +16084,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -16122,7 +16122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16150,45 +16150,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME00</t>
+          <t>MQME006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>246</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMEA1</t>
+          <t>MQME007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of length-required columns</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MQMEA2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total number of NUMBER columns</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
         <v>218</v>
       </c>
     </row>
@@ -16203,7 +16188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16231,29 +16216,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQME01</t>
+          <t>MQID001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Columns with comments</t>
+          <t>Table names in singular</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>99.59%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQME02</t>
+          <t>MQID002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Columns with data type</t>
+          <t>Table with recommended name length</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -16265,12 +16250,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQME03</t>
+          <t>MQID003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Length-required columns with data length</t>
+          <t>Columns with correct prefixes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -16282,12 +16267,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQME04</t>
+          <t>MQID004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NUMBER columns with valid scale</t>
+          <t>Columns with recommended name size</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -16299,29 +16284,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQME05</t>
+          <t>MQID005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Columns with valid num_distinct</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>99.59%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQME06</t>
+          <t>MQID006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Columns with valid num_nulls</t>
+          <t>Table with standard PK prefixes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -16333,15 +16318,83 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQME07</t>
+          <t>MQID007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Columns with valid density</t>
+          <t>Table with standard FK prefixes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQID008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Table with standard UK prefixes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQID009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NUMBER columns with valid scale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQID010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns with valid num_distinct</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQID011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns with valid num_nulls</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
